--- a/需求文档/计费单据UI设计V0.2.xlsx
+++ b/需求文档/计费单据UI设计V0.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="15395" tabRatio="683" firstSheet="4" activeTab="7"/>
+    <workbookView windowWidth="21551" windowHeight="11304" tabRatio="683" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录及说明" sheetId="2" r:id="rId1"/>
@@ -5427,8 +5427,8 @@
   <sheetPr/>
   <dimension ref="B2:AP48"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" zoomScale="93" zoomScaleNormal="93" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15.6"/>
@@ -6892,8 +6892,8 @@
   <sheetPr/>
   <dimension ref="B2:AK49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15.6"/>
@@ -8406,8 +8406,8 @@
   <sheetPr/>
   <dimension ref="B2:AT56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="AC33" sqref="AC33"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="13.6" customHeight="1"/>
@@ -10154,8 +10154,8 @@
   <sheetPr/>
   <dimension ref="B2:AC100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:I47"/>
+    <sheetView showGridLines="0" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.9" defaultRowHeight="13.6" customHeight="1"/>
